--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/02/2022</t>
+          <t>09/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,11 +12631,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,11 +12631,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2022</t>
+          <t>24/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155183981&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155129309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155129309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155183981&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -1652,7 +1652,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,11 +12631,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,11 +12631,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>BUTLER CORPORATION SPA</t>
+          <t>Santa Cecilia Solar SpA</t>
         </is>
       </c>
       <c r="F59" t="n">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>COCHARCAS SOLAR SpA</t>
+          <t>Cocharcas Solar SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/03/2022</t>
+          <t>28/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -1076,7 +1076,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Christian Ernesto Hune Pavón</t>
+          <t>Galilea S.A. de ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -5143,7 +5143,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Asociación de Canalistas del Laja</t>
+          <t>José Luis Moraga SpA</t>
         </is>
       </c>
       <c r="F100" t="n">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/06/2022</t>
+          <t>17/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/06/2022</t>
+          <t>30/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -3284,7 +3284,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -7831,7 +7831,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -16903,7 +16903,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F345" t="n">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -980,7 +980,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -10471,7 +10471,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -2900,7 +2900,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -19399,7 +19399,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F397" t="n">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/04/2023</t>
+          <t>08/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -1076,7 +1076,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -2132,7 +2132,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/06/2023</t>
+          <t>29/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Macro Loteo Los Ángeles</t>
+          <t>Parque Eólico El Rosal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA JOSE MIGUEL GARCIA Y CIA LIMITADA</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10539</v>
+        <v>230000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159369672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159460415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Eólico El Rosal</t>
+          <t>Macro Loteo Los Ángeles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>CONSTRUCTORA JOSE MIGUEL GARCIA Y CIA LIMITADA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>230000</v>
+        <v>10539</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/06/2023</t>
+          <t>29/06/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159460415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159369672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/07/2023</t>
+          <t>18/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2023</t>
+          <t>20/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -19639,7 +19639,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F402" t="n">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -3655,7 +3655,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Montajes Cielpanel SpA</t>
+          <t>CANTERAS SOLAR SPA</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -1652,7 +1652,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">

--- a/data/Los Angeles.xlsx
+++ b/data/Los Angeles.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>21/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>21/12/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
